--- a/doc/参数设置_A1.xlsx
+++ b/doc/参数设置_A1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13005"/>
+    <workbookView windowWidth="19200" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Lora转modbus寄存器定义" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>序号</t>
   </si>
@@ -156,6 +156,9 @@
     <t>备注(对应寄存器地址)</t>
   </si>
   <si>
+    <t xml:space="preserve">0x01 0x10 (10000 + 20 *N) </t>
+  </si>
+  <si>
     <t>适配器下接仪表，通道N(0~7,共8个通道)</t>
   </si>
   <si>
@@ -177,25 +180,25 @@
     <t>4字节(浮点型数据)</t>
   </si>
   <si>
-    <t>10002+N*20</t>
+    <t>10001+N*20</t>
   </si>
   <si>
     <t>满量程</t>
   </si>
   <si>
-    <t>10004+N*20</t>
+    <t>10003+N*20</t>
   </si>
   <si>
     <t>修正系数K</t>
   </si>
   <si>
-    <t>10006+N*20</t>
+    <t>10005+N*20</t>
   </si>
   <si>
     <t>修正系数B</t>
   </si>
   <si>
-    <t>10008+N*20</t>
+    <t>10007+N*20</t>
   </si>
   <si>
     <t>传感器周期</t>
@@ -204,25 +207,25 @@
     <t>2字节(无符号整形)</t>
   </si>
   <si>
+    <t>10009+N*20</t>
+  </si>
+  <si>
+    <t>通道使能</t>
+  </si>
+  <si>
     <t>10010+N*20</t>
   </si>
   <si>
-    <t>通道使能</t>
+    <t>通道对应MODBUS地址</t>
   </si>
   <si>
     <t>10011+N*20</t>
   </si>
   <si>
-    <t>通道对应MODBUS地址</t>
-  </si>
-  <si>
-    <t>10012+N*20</t>
-  </si>
-  <si>
     <t>通道对应数据长度</t>
   </si>
   <si>
-    <t>10013+N*20</t>
+    <t>10012+N*20 +  (13)</t>
   </si>
   <si>
     <t>低报警</t>
@@ -253,10 +256,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -268,30 +271,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,7 +294,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,99 +414,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -437,13 +440,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,25 +560,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,133 +602,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,17 +683,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,7 +708,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,6 +723,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -749,21 +758,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -774,153 +768,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1311,8 +1314,8 @@
   <sheetPr/>
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:F22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -1326,7 +1329,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1344,6 +1347,9 @@
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:23">
@@ -1351,19 +1357,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1439,16 +1445,16 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1">
         <v>10002</v>
@@ -1524,16 +1530,16 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
@@ -1542,16 +1548,16 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
@@ -1560,16 +1566,16 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
@@ -1578,16 +1584,16 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
@@ -1596,16 +1602,16 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:23">
@@ -1614,16 +1620,16 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1">
         <v>10012</v>
@@ -1699,16 +1705,16 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
@@ -1717,13 +1723,13 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1733,13 +1739,13 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1749,19 +1755,19 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1803,7 +1809,7 @@
     </row>
     <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1820,7 +1826,8 @@
       <c r="F22" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="G1:N1"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="A15:F19"/>
     <mergeCell ref="A21:F22"/>
